--- a/downloads/file.xlsx
+++ b/downloads/file.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -433,47 +433,47 @@
         <v>Gen</v>
       </c>
       <c r="C2" t="str">
-        <v>Dellorto</v>
+        <v>Danlaw</v>
       </c>
       <c r="D2" t="str">
-        <v>Diesel</v>
+        <v>Logger_4G</v>
       </c>
       <c r="E2" t="str">
-        <v>Testing</v>
+        <v>VI</v>
       </c>
       <c r="F2" t="str">
-        <v>Pranesh</v>
+        <v>Jessie</v>
       </c>
       <c r="G2">
-        <v>760</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>01/06/2023</v>
+        <v>05/06/2023</v>
       </c>
       <c r="B3" t="str">
         <v>Gen</v>
       </c>
       <c r="C3" t="str">
-        <v>Dellorto</v>
+        <v>Danlaw</v>
       </c>
       <c r="D3" t="str">
-        <v>BMW K2X DX</v>
+        <v>Logger_4G</v>
       </c>
       <c r="E3" t="str">
-        <v>Testing</v>
+        <v>VI</v>
       </c>
       <c r="F3" t="str">
-        <v>Pranesh</v>
+        <v>Neeta</v>
       </c>
       <c r="G3">
-        <v>90</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>01/06/2023</v>
+        <v>05/06/2023</v>
       </c>
       <c r="B4" t="str">
         <v>Gen</v>
@@ -491,265 +491,334 @@
         <v>Jessie</v>
       </c>
       <c r="G4">
-        <v>228</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>01/06/2023</v>
+        <v>05/06/2023</v>
       </c>
       <c r="B5" t="str">
         <v>Gen</v>
       </c>
       <c r="C5" t="str">
-        <v>Dellorto</v>
+        <v>Danlaw</v>
       </c>
       <c r="D5" t="str">
-        <v>Sensor_3_in_1</v>
+        <v>Logger_4G</v>
       </c>
       <c r="E5" t="str">
-        <v>Testing 2</v>
+        <v>Antenna assembly</v>
       </c>
       <c r="F5" t="str">
-        <v>Pranav</v>
+        <v>Pradyumna</v>
       </c>
       <c r="G5">
-        <v>740</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>01/06/2023</v>
+        <v>07/06/2023</v>
       </c>
       <c r="B6" t="str">
         <v>Gen</v>
       </c>
       <c r="C6" t="str">
-        <v>Dellorto</v>
+        <v>Danlaw</v>
       </c>
       <c r="D6" t="str">
-        <v>Renault</v>
+        <v>Logger_4G</v>
       </c>
       <c r="E6" t="str">
         <v>VI</v>
       </c>
       <c r="F6" t="str">
-        <v>Trupti</v>
+        <v>Jessie</v>
       </c>
       <c r="G6">
-        <v>600</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>01/06/2023</v>
+        <v>08/06/2023</v>
       </c>
       <c r="B7" t="str">
         <v>Gen</v>
       </c>
       <c r="C7" t="str">
-        <v>Dellorto</v>
+        <v>Danlaw</v>
       </c>
       <c r="D7" t="str">
-        <v>Diesel</v>
+        <v>Logger_4G</v>
       </c>
       <c r="E7" t="str">
         <v>VI</v>
       </c>
       <c r="F7" t="str">
-        <v>Maya</v>
+        <v>Jessie</v>
       </c>
       <c r="G7">
-        <v>880</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>01/06/2023</v>
+        <v>09/06/2023</v>
       </c>
       <c r="B8" t="str">
         <v>Gen</v>
       </c>
       <c r="C8" t="str">
-        <v>Dellorto</v>
+        <v>Danlaw</v>
       </c>
       <c r="D8" t="str">
-        <v>Diesel</v>
+        <v>Logger_4G</v>
       </c>
       <c r="E8" t="str">
-        <v>TH Soldering</v>
+        <v>VI</v>
       </c>
       <c r="F8" t="str">
-        <v>Sunita</v>
+        <v>Jessie</v>
       </c>
       <c r="G8">
-        <v>920</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>01/06/2023</v>
+        <v>10/06/2023</v>
       </c>
       <c r="B9" t="str">
         <v>Gen</v>
       </c>
       <c r="C9" t="str">
-        <v>Dellorto</v>
+        <v>Danlaw</v>
       </c>
       <c r="D9" t="str">
-        <v>Renault</v>
+        <v>Logger_4G</v>
       </c>
       <c r="E9" t="str">
-        <v>TH Soldering</v>
+        <v>VI</v>
       </c>
       <c r="F9" t="str">
-        <v>Roopa</v>
+        <v>Jessie</v>
       </c>
       <c r="G9">
-        <v>450</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>01/06/2023</v>
+        <v>12/06/2023</v>
       </c>
       <c r="B10" t="str">
         <v>Gen</v>
       </c>
       <c r="C10" t="str">
-        <v>Dellorto</v>
+        <v>Danlaw</v>
       </c>
       <c r="D10" t="str">
-        <v>BMW K2X DX</v>
+        <v>Logger_4G</v>
       </c>
       <c r="E10" t="str">
         <v>VI</v>
       </c>
       <c r="F10" t="str">
-        <v>Maya</v>
+        <v>Jessie</v>
       </c>
       <c r="G10">
-        <v>60</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>01/06/2023</v>
+        <v>14/06/2023</v>
       </c>
       <c r="B11" t="str">
         <v>Gen</v>
       </c>
       <c r="C11" t="str">
-        <v>Emerald</v>
+        <v>Danlaw</v>
       </c>
       <c r="D11" t="str">
-        <v>D1_40</v>
+        <v>Logger_4G</v>
       </c>
       <c r="E11" t="str">
         <v>VI</v>
       </c>
       <c r="F11" t="str">
-        <v>Bella</v>
+        <v>Jessie</v>
       </c>
       <c r="G11">
-        <v>30</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>01/06/2023</v>
+        <v>15/06/2023</v>
       </c>
       <c r="B12" t="str">
         <v>Gen</v>
       </c>
       <c r="C12" t="str">
-        <v>Emerald</v>
+        <v>Danlaw</v>
       </c>
       <c r="D12" t="str">
-        <v>D3_100</v>
+        <v>Logger_4G</v>
       </c>
       <c r="E12" t="str">
-        <v>Final VI</v>
+        <v>VI</v>
       </c>
       <c r="F12" t="str">
-        <v>Rashmi</v>
+        <v>Jessie</v>
       </c>
       <c r="G12">
-        <v>92</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>01/06/2023</v>
+        <v>16/06/2023</v>
       </c>
       <c r="B13" t="str">
         <v>Gen</v>
       </c>
       <c r="C13" t="str">
-        <v>Emerald</v>
+        <v>Danlaw</v>
       </c>
       <c r="D13" t="str">
-        <v>D3_100</v>
+        <v>Logger_4G</v>
       </c>
       <c r="E13" t="str">
-        <v>DIP switch sold</v>
+        <v>VI</v>
       </c>
       <c r="F13" t="str">
-        <v>vidhya</v>
+        <v>Jessie</v>
       </c>
       <c r="G13">
-        <v>75</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>01/06/2023</v>
+        <v>17/06/2023</v>
       </c>
       <c r="B14" t="str">
         <v>Gen</v>
       </c>
       <c r="C14" t="str">
-        <v>Emerald</v>
+        <v>Danlaw</v>
       </c>
       <c r="D14" t="str">
-        <v>D1_40</v>
+        <v>Logger_4G</v>
       </c>
       <c r="E14" t="str">
-        <v>DIP switch sold</v>
+        <v>VI</v>
       </c>
       <c r="F14" t="str">
-        <v>vidhya</v>
+        <v>Jessie</v>
       </c>
       <c r="G14">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>01/06/2023</v>
+        <v>19/06/2023</v>
       </c>
       <c r="B15" t="str">
         <v>Gen</v>
       </c>
       <c r="C15" t="str">
-        <v>APFC</v>
+        <v>Danlaw</v>
       </c>
       <c r="D15" t="str">
-        <v>DAQ Series-2</v>
+        <v>Logger_4G</v>
       </c>
       <c r="E15" t="str">
         <v>VI</v>
       </c>
       <c r="F15" t="str">
-        <v>Sanchali</v>
+        <v>Jessie</v>
       </c>
       <c r="G15">
-        <v>13</v>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>22/06/2023</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Gen</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Danlaw</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Logger_4G</v>
+      </c>
+      <c r="E16" t="str">
+        <v>VI</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Jessie</v>
+      </c>
+      <c r="G16">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>23/06/2023</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Gen</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Danlaw</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Logger_4G</v>
+      </c>
+      <c r="E17" t="str">
+        <v>VI</v>
+      </c>
+      <c r="F17" t="str">
+        <v>Jessie</v>
+      </c>
+      <c r="G17">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>24/06/2023</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Gen</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Danlaw</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Logger_4G</v>
+      </c>
+      <c r="E18" t="str">
+        <v>VI</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Jessie</v>
+      </c>
+      <c r="G18">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G15"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G18"/>
   </ignoredErrors>
 </worksheet>
 </file>